--- a/Code/Resultados_Analisis/Ciudades/Chandler_AZ/Chandler_AZ_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Chandler_AZ/Chandler_AZ_datos_procesados.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR2" t="n">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR4" t="n">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="AX4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR8" t="n">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="AX8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR14" t="n">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="AX14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3260,12 +3260,12 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR19" t="n">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="AX19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR32" t="n">
@@ -5690,12 +5690,12 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="AX32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR34" t="n">
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="AX34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8268,7 +8268,7 @@
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR48" t="n">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="AX48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR50" t="n">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="AX50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR54" t="n">
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="AX54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR64" t="n">
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="AX64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -13128,7 +13128,7 @@
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR78" t="n">
@@ -13156,7 +13156,7 @@
         </is>
       </c>
       <c r="AX78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR79" t="n">
@@ -13318,7 +13318,7 @@
         </is>
       </c>
       <c r="AX79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -14748,7 +14748,7 @@
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR88" t="n">
@@ -14776,7 +14776,7 @@
         </is>
       </c>
       <c r="AX88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -15720,7 +15720,7 @@
       </c>
       <c r="AQ94" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR94" t="n">
@@ -15748,7 +15748,7 @@
         </is>
       </c>
       <c r="AX94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR102" t="n">
@@ -17044,7 +17044,7 @@
         </is>
       </c>
       <c r="AX102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="AQ105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR105" t="n">
@@ -17530,7 +17530,7 @@
         </is>
       </c>
       <c r="AX105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -17988,7 +17988,7 @@
       </c>
       <c r="AQ108" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR108" t="n">
@@ -18016,7 +18016,7 @@
         </is>
       </c>
       <c r="AX108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Resultados_Analisis/Ciudades/Chandler_AZ/Chandler_AZ_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Chandler_AZ/Chandler_AZ_datos_procesados.xlsx
@@ -830,12 +830,12 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR3" t="n">
@@ -992,12 +992,12 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="AX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR4" t="n">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="AX4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR5" t="n">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="AX5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR8" t="n">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR9" t="n">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR10" t="n">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="AX10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR11" t="n">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="AX11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2450,12 +2450,12 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR14" t="n">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="AX14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR15" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="AX15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR16" t="n">
@@ -3098,12 +3098,12 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="AX16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR17" t="n">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="AX17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR18" t="n">
@@ -3422,12 +3422,12 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="AX18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR20" t="n">
@@ -3746,12 +3746,12 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR21" t="n">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="AX21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR22" t="n">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR24" t="n">
@@ -4394,12 +4394,12 @@
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="AX24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR25" t="n">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="AX25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR26" t="n">
@@ -4718,12 +4718,12 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="AX26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4880,12 +4880,12 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR28" t="n">
@@ -5042,12 +5042,12 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="AX28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW29" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR30" t="n">
@@ -5366,12 +5366,12 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW31" t="inlineStr">
@@ -5695,7 +5695,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
@@ -5852,12 +5852,12 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW33" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW35" t="inlineStr">
@@ -6338,12 +6338,12 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW36" t="inlineStr">
@@ -6500,12 +6500,12 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW37" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR38" t="n">
@@ -6662,12 +6662,12 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW38" t="inlineStr">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="AX38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR39" t="n">
@@ -6824,12 +6824,12 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW39" t="inlineStr">
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="AX39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6986,12 +6986,12 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW40" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW41" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR42" t="n">
@@ -7310,12 +7310,12 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW42" t="inlineStr">
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="AX42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR43" t="n">
@@ -7472,12 +7472,12 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW43" t="inlineStr">
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="AX43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7634,12 +7634,12 @@
       </c>
       <c r="AU44" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV44" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW44" t="inlineStr">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR45" t="n">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW45" t="inlineStr">
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="AX45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7958,12 +7958,12 @@
       </c>
       <c r="AU46" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW46" t="inlineStr">
@@ -8120,12 +8120,12 @@
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="AU48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW48" t="inlineStr">
@@ -8444,12 +8444,12 @@
       </c>
       <c r="AU49" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW49" t="inlineStr">
@@ -8606,12 +8606,12 @@
       </c>
       <c r="AU50" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV50" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW50" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR51" t="n">
@@ -8768,12 +8768,12 @@
       </c>
       <c r="AU51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV51" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW51" t="inlineStr">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="AX51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -8930,12 +8930,12 @@
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr">
@@ -9092,12 +9092,12 @@
       </c>
       <c r="AU53" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV53" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW53" t="inlineStr">
@@ -9254,12 +9254,12 @@
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW54" t="inlineStr">
@@ -9402,7 +9402,7 @@
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR55" t="n">
@@ -9416,12 +9416,12 @@
       </c>
       <c r="AU55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV55" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW55" t="inlineStr">
@@ -9430,7 +9430,7 @@
         </is>
       </c>
       <c r="AX55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR56" t="n">
@@ -9578,12 +9578,12 @@
       </c>
       <c r="AU56" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW56" t="inlineStr">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="AX56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -9740,12 +9740,12 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
@@ -9902,12 +9902,12 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW58" t="inlineStr">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR59" t="n">
@@ -10064,12 +10064,12 @@
       </c>
       <c r="AU59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW59" t="inlineStr">
@@ -10078,7 +10078,7 @@
         </is>
       </c>
       <c r="AX59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR60" t="n">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="AU60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
@@ -10240,7 +10240,7 @@
         </is>
       </c>
       <c r="AX60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="AU61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV61" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW61" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR62" t="n">
@@ -10550,12 +10550,12 @@
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
@@ -10564,7 +10564,7 @@
         </is>
       </c>
       <c r="AX62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10712,12 +10712,12 @@
       </c>
       <c r="AU63" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV63" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW63" t="inlineStr">
@@ -10874,12 +10874,12 @@
       </c>
       <c r="AU64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW64" t="inlineStr">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR65" t="n">
@@ -11036,12 +11036,12 @@
       </c>
       <c r="AU65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV65" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW65" t="inlineStr">
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="AX65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -11198,12 +11198,12 @@
       </c>
       <c r="AU66" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV66" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW66" t="inlineStr">
@@ -11360,12 +11360,12 @@
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR68" t="n">
@@ -11522,12 +11522,12 @@
       </c>
       <c r="AU68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW68" t="inlineStr">
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="AX68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -11684,12 +11684,12 @@
       </c>
       <c r="AU69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW69" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR70" t="n">
@@ -11846,12 +11846,12 @@
       </c>
       <c r="AU70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW70" t="inlineStr">
@@ -11860,7 +11860,7 @@
         </is>
       </c>
       <c r="AX70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11994,7 +11994,7 @@
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR71" t="n">
@@ -12008,12 +12008,12 @@
       </c>
       <c r="AU71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW71" t="inlineStr">
@@ -12022,7 +12022,7 @@
         </is>
       </c>
       <c r="AX71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -12170,12 +12170,12 @@
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr">
@@ -12332,12 +12332,12 @@
       </c>
       <c r="AU73" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV73" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW73" t="inlineStr">
@@ -12494,12 +12494,12 @@
       </c>
       <c r="AU74" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV74" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW74" t="inlineStr">
@@ -12656,12 +12656,12 @@
       </c>
       <c r="AU75" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV75" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW75" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR76" t="n">
@@ -12818,12 +12818,12 @@
       </c>
       <c r="AU76" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV76" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW76" t="inlineStr">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="AX76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR77" t="n">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
@@ -12994,7 +12994,7 @@
         </is>
       </c>
       <c r="AX77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -13142,12 +13142,12 @@
       </c>
       <c r="AU78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW78" t="inlineStr">
@@ -13304,12 +13304,12 @@
       </c>
       <c r="AU79" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV79" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW79" t="inlineStr">
@@ -13466,12 +13466,12 @@
       </c>
       <c r="AU80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV80" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW80" t="inlineStr">
@@ -13628,12 +13628,12 @@
       </c>
       <c r="AU81" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV81" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW81" t="inlineStr">
@@ -13790,12 +13790,12 @@
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR83" t="n">
@@ -13952,12 +13952,12 @@
       </c>
       <c r="AU83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW83" t="inlineStr">
@@ -13966,7 +13966,7 @@
         </is>
       </c>
       <c r="AX83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR84" t="n">
@@ -14114,12 +14114,12 @@
       </c>
       <c r="AU84" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV84" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW84" t="inlineStr">
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="AX84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -14276,12 +14276,12 @@
       </c>
       <c r="AU85" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV85" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW85" t="inlineStr">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR86" t="n">
@@ -14438,12 +14438,12 @@
       </c>
       <c r="AU86" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV86" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW86" t="inlineStr">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="AX86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -14600,12 +14600,12 @@
       </c>
       <c r="AU87" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
@@ -14748,7 +14748,7 @@
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR88" t="n">
@@ -14762,12 +14762,12 @@
       </c>
       <c r="AU88" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV88" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW88" t="inlineStr">
@@ -14776,7 +14776,7 @@
         </is>
       </c>
       <c r="AX88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -14924,12 +14924,12 @@
       </c>
       <c r="AU89" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV89" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW89" t="inlineStr">
@@ -15086,12 +15086,12 @@
       </c>
       <c r="AU90" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV90" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW90" t="inlineStr">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="AQ91" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR91" t="n">
@@ -15248,12 +15248,12 @@
       </c>
       <c r="AU91" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV91" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW91" t="inlineStr">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="AX91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR92" t="n">
@@ -15410,12 +15410,12 @@
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="AX92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR93" t="n">
@@ -15572,12 +15572,12 @@
       </c>
       <c r="AU93" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV93" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW93" t="inlineStr">
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="AX93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -15734,12 +15734,12 @@
       </c>
       <c r="AU94" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV94" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW94" t="inlineStr">
@@ -15882,7 +15882,7 @@
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR95" t="n">
@@ -15896,12 +15896,12 @@
       </c>
       <c r="AU95" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV95" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW95" t="inlineStr">
@@ -15910,7 +15910,7 @@
         </is>
       </c>
       <c r="AX95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -16058,12 +16058,12 @@
       </c>
       <c r="AU96" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV96" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW96" t="inlineStr">
@@ -16220,12 +16220,12 @@
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
@@ -16382,12 +16382,12 @@
       </c>
       <c r="AU98" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV98" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW98" t="inlineStr">
@@ -16544,12 +16544,12 @@
       </c>
       <c r="AU99" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW99" t="inlineStr">
@@ -16706,12 +16706,12 @@
       </c>
       <c r="AU100" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV100" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW100" t="inlineStr">
@@ -16868,12 +16868,12 @@
       </c>
       <c r="AU101" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV101" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW101" t="inlineStr">
@@ -17030,12 +17030,12 @@
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="AQ103" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR103" t="n">
@@ -17192,12 +17192,12 @@
       </c>
       <c r="AU103" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV103" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW103" t="inlineStr">
@@ -17206,7 +17206,7 @@
         </is>
       </c>
       <c r="AX103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="AQ104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR104" t="n">
@@ -17354,12 +17354,12 @@
       </c>
       <c r="AU104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW104" t="inlineStr">
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="AX104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="AQ105" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR105" t="n">
@@ -17516,12 +17516,12 @@
       </c>
       <c r="AU105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW105" t="inlineStr">
@@ -17530,7 +17530,7 @@
         </is>
       </c>
       <c r="AX105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -17664,7 +17664,7 @@
       </c>
       <c r="AQ106" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR106" t="n">
@@ -17678,12 +17678,12 @@
       </c>
       <c r="AU106" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV106" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
       <c r="AW106" t="inlineStr">
@@ -17692,7 +17692,7 @@
         </is>
       </c>
       <c r="AX106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -17840,12 +17840,12 @@
       </c>
       <c r="AU107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW107" t="inlineStr">
@@ -17988,7 +17988,7 @@
       </c>
       <c r="AQ108" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AR108" t="n">
@@ -18002,12 +18002,12 @@
       </c>
       <c r="AU108" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AV108" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="AW108" t="inlineStr">
@@ -18016,7 +18016,7 @@
         </is>
       </c>
       <c r="AX108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Resultados_Analisis/Ciudades/Chandler_AZ/Chandler_AZ_datos_procesados.xlsx
+++ b/Code/Resultados_Analisis/Ciudades/Chandler_AZ/Chandler_AZ_datos_procesados.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR2" t="n">
@@ -830,12 +830,12 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -992,12 +992,12 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR11" t="n">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2450,12 +2450,12 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR18" t="n">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
@@ -3746,12 +3746,12 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR22" t="n">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="AX22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
@@ -4556,12 +4556,12 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
@@ -4880,12 +4880,12 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR28" t="n">
@@ -5042,12 +5042,12 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="AX28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR30" t="n">
@@ -5366,12 +5366,12 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="AX30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -5852,12 +5852,12 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW33" t="inlineStr">
@@ -6338,12 +6338,12 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW36" t="inlineStr">
@@ -6500,12 +6500,12 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW37" t="inlineStr">
@@ -6662,12 +6662,12 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW38" t="inlineStr">
@@ -6810,7 +6810,7 @@
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR39" t="n">
@@ -6824,12 +6824,12 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW39" t="inlineStr">
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -6986,12 +6986,12 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW40" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW41" t="inlineStr">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR42" t="n">
@@ -7310,12 +7310,12 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW42" t="inlineStr">
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="AX42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR43" t="n">
@@ -7472,12 +7472,12 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW43" t="inlineStr">
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="AX43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -7796,12 +7796,12 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW45" t="inlineStr">
@@ -7958,12 +7958,12 @@
       </c>
       <c r="AU46" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW46" t="inlineStr">
@@ -8282,12 +8282,12 @@
       </c>
       <c r="AU48" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW48" t="inlineStr">
@@ -8444,12 +8444,12 @@
       </c>
       <c r="AU49" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW49" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR51" t="n">
@@ -8768,12 +8768,12 @@
       </c>
       <c r="AU51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV51" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW51" t="inlineStr">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="AX51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -8930,12 +8930,12 @@
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr">
@@ -9402,7 +9402,7 @@
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR55" t="n">
@@ -9416,12 +9416,12 @@
       </c>
       <c r="AU55" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV55" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW55" t="inlineStr">
@@ -9430,7 +9430,7 @@
         </is>
       </c>
       <c r="AX55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -9578,12 +9578,12 @@
       </c>
       <c r="AU56" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW56" t="inlineStr">
@@ -9740,12 +9740,12 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
@@ -9902,12 +9902,12 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW58" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="AQ60" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR60" t="n">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="AU60" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
@@ -10240,7 +10240,7 @@
         </is>
       </c>
       <c r="AX60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -10388,12 +10388,12 @@
       </c>
       <c r="AU61" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV61" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW61" t="inlineStr">
@@ -10550,12 +10550,12 @@
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
@@ -10712,12 +10712,12 @@
       </c>
       <c r="AU63" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV63" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW63" t="inlineStr">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR65" t="n">
@@ -11036,12 +11036,12 @@
       </c>
       <c r="AU65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV65" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW65" t="inlineStr">
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="AX65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -11198,12 +11198,12 @@
       </c>
       <c r="AU66" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV66" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW66" t="inlineStr">
@@ -11360,12 +11360,12 @@
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
@@ -12170,12 +12170,12 @@
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr">
@@ -12332,12 +12332,12 @@
       </c>
       <c r="AU73" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV73" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW73" t="inlineStr">
@@ -12494,12 +12494,12 @@
       </c>
       <c r="AU74" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV74" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW74" t="inlineStr">
@@ -12656,12 +12656,12 @@
       </c>
       <c r="AU75" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV75" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW75" t="inlineStr">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR77" t="n">
@@ -12994,7 +12994,7 @@
         </is>
       </c>
       <c r="AX77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -13466,12 +13466,12 @@
       </c>
       <c r="AU80" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV80" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW80" t="inlineStr">
@@ -13628,12 +13628,12 @@
       </c>
       <c r="AU81" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV81" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW81" t="inlineStr">
@@ -13790,12 +13790,12 @@
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR83" t="n">
@@ -13966,7 +13966,7 @@
         </is>
       </c>
       <c r="AX83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR84" t="n">
@@ -14114,12 +14114,12 @@
       </c>
       <c r="AU84" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV84" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW84" t="inlineStr">
@@ -14128,7 +14128,7 @@
         </is>
       </c>
       <c r="AX84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -14762,12 +14762,12 @@
       </c>
       <c r="AU88" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV88" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW88" t="inlineStr">
@@ -14924,12 +14924,12 @@
       </c>
       <c r="AU89" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV89" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW89" t="inlineStr">
@@ -15086,12 +15086,12 @@
       </c>
       <c r="AU90" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV90" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW90" t="inlineStr">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="AQ91" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR91" t="n">
@@ -15248,12 +15248,12 @@
       </c>
       <c r="AU91" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV91" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW91" t="inlineStr">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="AX91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="AQ92" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AR92" t="n">
@@ -15410,12 +15410,12 @@
       </c>
       <c r="AU92" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="AX92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR93" t="n">
@@ -15572,12 +15572,12 @@
       </c>
       <c r="AU93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV93" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW93" t="inlineStr">
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="AX93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -16058,12 +16058,12 @@
       </c>
       <c r="AU96" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV96" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW96" t="inlineStr">
@@ -16220,12 +16220,12 @@
       </c>
       <c r="AU97" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
@@ -16544,12 +16544,12 @@
       </c>
       <c r="AU99" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW99" t="inlineStr">
@@ -16706,12 +16706,12 @@
       </c>
       <c r="AU100" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV100" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW100" t="inlineStr">
@@ -16868,12 +16868,12 @@
       </c>
       <c r="AU101" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV101" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW101" t="inlineStr">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="AQ102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR102" t="n">
@@ -17030,12 +17030,12 @@
       </c>
       <c r="AU102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr">
@@ -17044,7 +17044,7 @@
         </is>
       </c>
       <c r="AX102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -17192,12 +17192,12 @@
       </c>
       <c r="AU103" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV103" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW103" t="inlineStr">
@@ -17340,7 +17340,7 @@
       </c>
       <c r="AQ104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR104" t="n">
@@ -17354,12 +17354,12 @@
       </c>
       <c r="AU104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW104" t="inlineStr">
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="AX104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -17664,7 +17664,7 @@
       </c>
       <c r="AQ106" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="AR106" t="n">
@@ -17678,12 +17678,12 @@
       </c>
       <c r="AU106" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AV106" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="AW106" t="inlineStr">
@@ -17692,7 +17692,7 @@
         </is>
       </c>
       <c r="AX106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
